--- a/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001808</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华互联网主题灵活配置混合</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>63.71</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.31</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>002411</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>华夏新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.83</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008212</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合C</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>001808</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>银华互联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.83</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>008212</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>华夏新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>38.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -856,15 +986,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
@@ -1207,12 +1207,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002610-爱康科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,471 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5392</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4421</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3681</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002411</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1371</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>38.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160324</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0665</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001808</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华互联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008212</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -988,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2931</t>
+          <t>0.4045</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1026,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.1240</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1120,26 +730,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4045</t>
+          <t>0.2931</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1158,26 +768,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1240</t>
+          <t>0.0544</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1191,80 +801,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.91</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>